--- a/pan_binary_heatmap.xlsx
+++ b/pan_binary_heatmap.xlsx
@@ -1237,15 +1237,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BR100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView topLeftCell="BJ1" workbookViewId="0">
+      <selection activeCell="BS1" sqref="BS1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.6640625" customWidth="1"/>
     <col min="2" max="2" width="13.1640625" customWidth="1"/>
-    <col min="69" max="69" width="10.6640625" customWidth="1"/>
+    <col min="69" max="69" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:70" x14ac:dyDescent="0.2">
@@ -22461,7 +22461,7 @@
   <dimension ref="A1:M100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/pan_binary_heatmap.xlsx
+++ b/pan_binary_heatmap.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28016"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/galambosd/meta'omics/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dgalambos/Documents/GitHub/meta-omics/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="460" windowWidth="28160" windowHeight="15220" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="640" yWindow="460" windowWidth="28160" windowHeight="15220" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="table" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="287">
   <si>
     <t>PC</t>
   </si>
@@ -944,8 +944,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -955,11 +957,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="7">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1235,20 +1239,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BR100"/>
+  <dimension ref="A1:BS100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.6640625" customWidth="1"/>
     <col min="2" max="2" width="13.1640625" customWidth="1"/>
-    <col min="69" max="69" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="20.83203125" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" customWidth="1"/>
+    <col min="5" max="5" width="15.1640625" customWidth="1"/>
+    <col min="6" max="6" width="15.5" customWidth="1"/>
+    <col min="70" max="70" width="10.6640625" customWidth="1"/>
+    <col min="71" max="71" width="30.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>168</v>
       </c>
@@ -1256,222 +1265,225 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>285</v>
       </c>
       <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>19</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>20</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>21</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>31</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>32</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>33</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>34</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>35</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>36</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>37</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>38</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>39</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>40</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>41</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
         <v>42</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AT1" t="s">
         <v>43</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AU1" t="s">
         <v>44</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AV1" t="s">
         <v>45</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AW1" t="s">
         <v>46</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AX1" t="s">
         <v>47</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AY1" t="s">
         <v>48</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AZ1" t="s">
         <v>49</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BA1" t="s">
         <v>50</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BB1" t="s">
         <v>51</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BC1" t="s">
         <v>52</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BD1" t="s">
         <v>53</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BE1" t="s">
         <v>54</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BF1" t="s">
         <v>55</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BG1" t="s">
         <v>56</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BH1" t="s">
         <v>57</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BI1" t="s">
         <v>58</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BJ1" t="s">
         <v>59</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BK1" t="s">
         <v>60</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BL1" t="s">
         <v>61</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BM1" t="s">
         <v>62</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BN1" t="s">
         <v>63</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BO1" t="s">
         <v>64</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BP1" t="s">
         <v>65</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BQ1" t="s">
         <v>66</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BR1" t="s">
         <v>67</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="BS1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>92</v>
       </c>
-      <c r="C2">
-        <v>1</v>
+      <c r="C2" s="1" t="s">
+        <v>255</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -1573,7 +1585,7 @@
         <v>0</v>
       </c>
       <c r="AL2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM2">
         <v>1</v>
@@ -1585,7 +1597,7 @@
         <v>1</v>
       </c>
       <c r="AP2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ2">
         <v>0</v>
@@ -1671,16 +1683,19 @@
       <c r="BR2">
         <v>0</v>
       </c>
+      <c r="BS2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>114</v>
       </c>
-      <c r="C3">
-        <v>0</v>
+      <c r="C3" s="1" t="s">
+        <v>255</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1797,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
         <v>1</v>
@@ -1806,7 +1821,7 @@
         <v>1</v>
       </c>
       <c r="AS3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT3">
         <v>0</v>
@@ -1883,16 +1898,19 @@
       <c r="BR3">
         <v>0</v>
       </c>
+      <c r="BS3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>156</v>
       </c>
-      <c r="C4">
-        <v>0</v>
+      <c r="C4" s="1" t="s">
+        <v>255</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1919,10 +1937,10 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -1937,10 +1955,10 @@
         <v>0</v>
       </c>
       <c r="R4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -2095,16 +2113,19 @@
       <c r="BR4">
         <v>0</v>
       </c>
+      <c r="BS4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>70</v>
       </c>
-      <c r="C5">
-        <v>1</v>
+      <c r="C5" s="1" t="s">
+        <v>220</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -2113,10 +2134,10 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -2128,16 +2149,16 @@
         <v>1</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>1</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -2146,7 +2167,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R5">
         <v>1</v>
@@ -2155,16 +2176,16 @@
         <v>1</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U5">
         <v>0</v>
       </c>
       <c r="V5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X5">
         <v>0</v>
@@ -2176,7 +2197,7 @@
         <v>0</v>
       </c>
       <c r="AA5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB5">
         <v>1</v>
@@ -2188,7 +2209,7 @@
         <v>1</v>
       </c>
       <c r="AE5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -2197,7 +2218,7 @@
         <v>0</v>
       </c>
       <c r="AH5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI5">
         <v>1</v>
@@ -2254,13 +2275,13 @@
         <v>1</v>
       </c>
       <c r="BA5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB5">
         <v>0</v>
       </c>
       <c r="BC5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD5">
         <v>1</v>
@@ -2272,10 +2293,10 @@
         <v>1</v>
       </c>
       <c r="BG5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI5">
         <v>1</v>
@@ -2307,16 +2328,19 @@
       <c r="BR5">
         <v>1</v>
       </c>
+      <c r="BS5">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>107</v>
       </c>
-      <c r="C6">
-        <v>0</v>
+      <c r="C6" s="1" t="s">
+        <v>220</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -2421,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="AL6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM6">
         <v>1</v>
@@ -2433,7 +2457,7 @@
         <v>1</v>
       </c>
       <c r="AP6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ6">
         <v>0</v>
@@ -2519,16 +2543,19 @@
       <c r="BR6">
         <v>0</v>
       </c>
+      <c r="BS6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>115</v>
       </c>
-      <c r="C7">
-        <v>0</v>
+      <c r="C7" s="1" t="s">
+        <v>220</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -2633,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="AL7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM7">
         <v>1</v>
@@ -2642,7 +2669,7 @@
         <v>1</v>
       </c>
       <c r="AO7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP7">
         <v>0</v>
@@ -2731,16 +2758,19 @@
       <c r="BR7">
         <v>0</v>
       </c>
+      <c r="BS7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>133</v>
       </c>
-      <c r="C8">
-        <v>0</v>
+      <c r="C8" s="1" t="s">
+        <v>220</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -2767,16 +2797,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -2943,16 +2973,19 @@
       <c r="BR8">
         <v>0</v>
       </c>
+      <c r="BS8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>151</v>
       </c>
-      <c r="C9">
-        <v>0</v>
+      <c r="C9" s="1" t="s">
+        <v>220</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -3024,19 +3057,19 @@
         <v>0</v>
       </c>
       <c r="AA9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC9">
         <v>0</v>
       </c>
       <c r="AD9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF9">
         <v>0</v>
@@ -3155,16 +3188,19 @@
       <c r="BR9">
         <v>0</v>
       </c>
+      <c r="BS9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>155</v>
       </c>
-      <c r="C10">
-        <v>0</v>
+      <c r="C10" s="1" t="s">
+        <v>220</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -3236,10 +3272,10 @@
         <v>0</v>
       </c>
       <c r="AA10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC10">
         <v>0</v>
@@ -3254,10 +3290,10 @@
         <v>0</v>
       </c>
       <c r="AG10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI10">
         <v>0</v>
@@ -3367,16 +3403,19 @@
       <c r="BR10">
         <v>0</v>
       </c>
+      <c r="BS10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>72</v>
       </c>
-      <c r="C11">
-        <v>0</v>
+      <c r="C11" s="1" t="s">
+        <v>240</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -3385,22 +3424,22 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>1</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -3436,7 +3475,7 @@
         <v>0</v>
       </c>
       <c r="W11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X11">
         <v>1</v>
@@ -3454,13 +3493,13 @@
         <v>1</v>
       </c>
       <c r="AC11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF11">
         <v>0</v>
@@ -3579,16 +3618,19 @@
       <c r="BR11">
         <v>0</v>
       </c>
+      <c r="BS11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>119</v>
       </c>
-      <c r="C12">
-        <v>0</v>
+      <c r="C12" s="1" t="s">
+        <v>240</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -3597,10 +3639,10 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -3648,19 +3690,19 @@
         <v>0</v>
       </c>
       <c r="W12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y12">
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB12">
         <v>0</v>
@@ -3791,16 +3833,19 @@
       <c r="BR12">
         <v>0</v>
       </c>
+      <c r="BS12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>91</v>
       </c>
-      <c r="C13">
-        <v>0</v>
+      <c r="C13" s="1" t="s">
+        <v>206</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -3818,13 +3863,13 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>1</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -3872,7 +3917,7 @@
         <v>0</v>
       </c>
       <c r="AA13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB13">
         <v>1</v>
@@ -3884,7 +3929,7 @@
         <v>1</v>
       </c>
       <c r="AE13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF13">
         <v>0</v>
@@ -4003,16 +4048,19 @@
       <c r="BR13">
         <v>0</v>
       </c>
+      <c r="BS13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>95</v>
       </c>
-      <c r="C14">
-        <v>0</v>
+      <c r="C14" s="1" t="s">
+        <v>206</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -4021,10 +4069,10 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -4072,7 +4120,7 @@
         <v>0</v>
       </c>
       <c r="W14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X14">
         <v>1</v>
@@ -4084,7 +4132,7 @@
         <v>1</v>
       </c>
       <c r="AA14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB14">
         <v>0</v>
@@ -4215,16 +4263,19 @@
       <c r="BR14">
         <v>0</v>
       </c>
+      <c r="BS14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>140</v>
       </c>
-      <c r="C15">
-        <v>0</v>
+      <c r="C15" s="1" t="s">
+        <v>206</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -4263,10 +4314,10 @@
         <v>0</v>
       </c>
       <c r="P15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15">
         <v>0</v>
@@ -4275,10 +4326,10 @@
         <v>0</v>
       </c>
       <c r="T15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V15">
         <v>0</v>
@@ -4427,16 +4478,19 @@
       <c r="BR15">
         <v>0</v>
       </c>
+      <c r="BS15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>167</v>
       </c>
-      <c r="C16">
-        <v>0</v>
+      <c r="C16" s="1" t="s">
+        <v>206</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -4469,13 +4523,13 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O16">
         <v>1</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -4639,16 +4693,19 @@
       <c r="BR16">
         <v>0</v>
       </c>
+      <c r="BS16">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>85</v>
       </c>
-      <c r="C17">
-        <v>0</v>
+      <c r="C17" s="1" t="s">
+        <v>232</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -4687,7 +4744,7 @@
         <v>0</v>
       </c>
       <c r="P17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17">
         <v>1</v>
@@ -4702,7 +4759,7 @@
         <v>1</v>
       </c>
       <c r="U17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V17">
         <v>0</v>
@@ -4851,16 +4908,19 @@
       <c r="BR17">
         <v>0</v>
       </c>
+      <c r="BS17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>90</v>
       </c>
-      <c r="C18">
-        <v>0</v>
+      <c r="C18" s="1" t="s">
+        <v>232</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -4878,13 +4938,13 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>1</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -4932,7 +4992,7 @@
         <v>0</v>
       </c>
       <c r="AA18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB18">
         <v>1</v>
@@ -4944,7 +5004,7 @@
         <v>1</v>
       </c>
       <c r="AE18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF18">
         <v>0</v>
@@ -5063,16 +5123,19 @@
       <c r="BR18">
         <v>0</v>
       </c>
+      <c r="BS18">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>94</v>
       </c>
-      <c r="C19">
-        <v>0</v>
+      <c r="C19" s="1" t="s">
+        <v>232</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -5081,10 +5144,10 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -5132,7 +5195,7 @@
         <v>0</v>
       </c>
       <c r="W19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X19">
         <v>1</v>
@@ -5144,7 +5207,7 @@
         <v>1</v>
       </c>
       <c r="AA19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB19">
         <v>0</v>
@@ -5275,16 +5338,19 @@
       <c r="BR19">
         <v>0</v>
       </c>
+      <c r="BS19">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>161</v>
       </c>
-      <c r="C20">
-        <v>0</v>
+      <c r="C20" s="1" t="s">
+        <v>232</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -5317,13 +5383,13 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O20">
         <v>1</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q20">
         <v>0</v>
@@ -5487,16 +5553,19 @@
       <c r="BR20">
         <v>0</v>
       </c>
+      <c r="BS20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>74</v>
       </c>
-      <c r="C21">
-        <v>0</v>
+      <c r="C21" s="1" t="s">
+        <v>191</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -5505,22 +5574,22 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>1</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -5556,7 +5625,7 @@
         <v>0</v>
       </c>
       <c r="W21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X21">
         <v>1</v>
@@ -5574,7 +5643,7 @@
         <v>1</v>
       </c>
       <c r="AC21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD21">
         <v>0</v>
@@ -5679,10 +5748,10 @@
         <v>0</v>
       </c>
       <c r="BL21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN21">
         <v>0</v>
@@ -5699,16 +5768,19 @@
       <c r="BR21">
         <v>0</v>
       </c>
+      <c r="BS21">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" t="s">
         <v>84</v>
       </c>
-      <c r="C22">
-        <v>0</v>
+      <c r="C22" s="1" t="s">
+        <v>191</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -5726,13 +5798,13 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>1</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -5780,7 +5852,7 @@
         <v>0</v>
       </c>
       <c r="AA22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB22">
         <v>1</v>
@@ -5792,7 +5864,7 @@
         <v>1</v>
       </c>
       <c r="AE22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF22">
         <v>0</v>
@@ -5911,16 +5983,19 @@
       <c r="BR22">
         <v>0</v>
       </c>
+      <c r="BS22">
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" t="s">
         <v>75</v>
       </c>
-      <c r="C23">
-        <v>0</v>
+      <c r="C23" s="1" t="s">
+        <v>173</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -5929,22 +6004,22 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>1</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -5980,7 +6055,7 @@
         <v>0</v>
       </c>
       <c r="W23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X23">
         <v>1</v>
@@ -6001,7 +6076,7 @@
         <v>1</v>
       </c>
       <c r="AD23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE23">
         <v>0</v>
@@ -6123,16 +6198,19 @@
       <c r="BR23">
         <v>0</v>
       </c>
+      <c r="BS23">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>76</v>
       </c>
-      <c r="C24">
-        <v>0</v>
+      <c r="C24" s="1" t="s">
+        <v>185</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -6141,22 +6219,22 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>1</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -6192,13 +6270,13 @@
         <v>0</v>
       </c>
       <c r="W24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z24">
         <v>1</v>
@@ -6213,7 +6291,7 @@
         <v>1</v>
       </c>
       <c r="AD24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE24">
         <v>0</v>
@@ -6335,16 +6413,19 @@
       <c r="BR24">
         <v>0</v>
       </c>
+      <c r="BS24">
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>109</v>
       </c>
-      <c r="C25">
-        <v>0</v>
+      <c r="C25" s="1" t="s">
+        <v>185</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -6353,10 +6434,10 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -6404,19 +6485,19 @@
         <v>0</v>
       </c>
       <c r="W25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z25">
         <v>1</v>
       </c>
       <c r="AA25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB25">
         <v>0</v>
@@ -6547,16 +6628,19 @@
       <c r="BR25">
         <v>0</v>
       </c>
+      <c r="BS25">
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" t="s">
         <v>144</v>
       </c>
-      <c r="C26">
-        <v>0</v>
+      <c r="C26" s="1" t="s">
+        <v>185</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -6574,13 +6658,13 @@
         <v>0</v>
       </c>
       <c r="I26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26">
         <v>1</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -6759,16 +6843,19 @@
       <c r="BR26">
         <v>0</v>
       </c>
+      <c r="BS26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="27" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" t="s">
         <v>110</v>
       </c>
-      <c r="C27">
-        <v>0</v>
+      <c r="C27" s="1" t="s">
+        <v>226</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -6777,10 +6864,10 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -6828,19 +6915,19 @@
         <v>0</v>
       </c>
       <c r="W27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z27">
         <v>1</v>
       </c>
       <c r="AA27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB27">
         <v>0</v>
@@ -6971,16 +7058,19 @@
       <c r="BR27">
         <v>0</v>
       </c>
+      <c r="BS27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28" t="s">
         <v>122</v>
       </c>
-      <c r="C28">
-        <v>0</v>
+      <c r="C28" s="1" t="s">
+        <v>226</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -6998,13 +7088,13 @@
         <v>0</v>
       </c>
       <c r="I28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28">
         <v>1</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -7183,16 +7273,19 @@
       <c r="BR28">
         <v>0</v>
       </c>
+      <c r="BS28">
+        <v>0</v>
+      </c>
     </row>
-    <row r="29" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" t="s">
         <v>147</v>
       </c>
-      <c r="C29">
-        <v>0</v>
+      <c r="C29" s="1" t="s">
+        <v>226</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -7264,13 +7357,13 @@
         <v>0</v>
       </c>
       <c r="AA29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB29">
         <v>1</v>
       </c>
       <c r="AC29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD29">
         <v>0</v>
@@ -7395,16 +7488,19 @@
       <c r="BR29">
         <v>0</v>
       </c>
+      <c r="BS29">
+        <v>0</v>
+      </c>
     </row>
-    <row r="30" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30" t="s">
         <v>80</v>
       </c>
-      <c r="C30">
-        <v>0</v>
+      <c r="C30" s="1" t="s">
+        <v>200</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -7413,22 +7509,22 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30">
         <v>0</v>
       </c>
       <c r="I30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30">
         <v>1</v>
       </c>
       <c r="K30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L30">
         <v>0</v>
@@ -7464,7 +7560,7 @@
         <v>0</v>
       </c>
       <c r="W30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X30">
         <v>1</v>
@@ -7476,16 +7572,16 @@
         <v>1</v>
       </c>
       <c r="AA30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB30">
         <v>0</v>
       </c>
       <c r="AC30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE30">
         <v>0</v>
@@ -7607,16 +7703,19 @@
       <c r="BR30">
         <v>0</v>
       </c>
+      <c r="BS30">
+        <v>0</v>
+      </c>
     </row>
-    <row r="31" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" t="s">
         <v>138</v>
       </c>
-      <c r="C31">
-        <v>0</v>
+      <c r="C31" s="1" t="s">
+        <v>200</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -7688,13 +7787,13 @@
         <v>0</v>
       </c>
       <c r="AA31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB31">
         <v>1</v>
       </c>
       <c r="AC31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD31">
         <v>0</v>
@@ -7819,16 +7918,19 @@
       <c r="BR31">
         <v>0</v>
       </c>
+      <c r="BS31">
+        <v>0</v>
+      </c>
     </row>
-    <row r="32" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>31</v>
       </c>
       <c r="B32" t="s">
         <v>137</v>
       </c>
-      <c r="C32">
-        <v>0</v>
+      <c r="C32" s="1" t="s">
+        <v>209</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -7903,16 +8005,16 @@
         <v>0</v>
       </c>
       <c r="AB32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF32">
         <v>0</v>
@@ -8031,16 +8133,19 @@
       <c r="BR32">
         <v>0</v>
       </c>
+      <c r="BS32">
+        <v>0</v>
+      </c>
     </row>
-    <row r="33" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33" t="s">
         <v>162</v>
       </c>
-      <c r="C33">
-        <v>0</v>
+      <c r="C33" s="1" t="s">
+        <v>209</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -8112,19 +8217,19 @@
         <v>0</v>
       </c>
       <c r="AA33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC33">
         <v>0</v>
       </c>
       <c r="AD33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF33">
         <v>0</v>
@@ -8243,16 +8348,19 @@
       <c r="BR33">
         <v>0</v>
       </c>
+      <c r="BS33">
+        <v>0</v>
+      </c>
     </row>
-    <row r="34" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>33</v>
       </c>
       <c r="B34" t="s">
         <v>165</v>
       </c>
-      <c r="C34">
-        <v>0</v>
+      <c r="C34" s="1" t="s">
+        <v>209</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -8342,10 +8450,10 @@
         <v>0</v>
       </c>
       <c r="AG34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI34">
         <v>0</v>
@@ -8387,10 +8495,10 @@
         <v>0</v>
       </c>
       <c r="AV34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX34">
         <v>0</v>
@@ -8455,16 +8563,19 @@
       <c r="BR34">
         <v>0</v>
       </c>
+      <c r="BS34">
+        <v>0</v>
+      </c>
     </row>
-    <row r="35" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>34</v>
       </c>
       <c r="B35" t="s">
         <v>100</v>
       </c>
-      <c r="C35">
-        <v>0</v>
+      <c r="C35" s="1" t="s">
+        <v>215</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -8473,10 +8584,10 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35">
         <v>0</v>
@@ -8524,7 +8635,7 @@
         <v>0</v>
       </c>
       <c r="W35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X35">
         <v>1</v>
@@ -8536,7 +8647,7 @@
         <v>1</v>
       </c>
       <c r="AA35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB35">
         <v>0</v>
@@ -8667,16 +8778,19 @@
       <c r="BR35">
         <v>0</v>
       </c>
+      <c r="BS35">
+        <v>0</v>
+      </c>
     </row>
-    <row r="36" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>35</v>
       </c>
       <c r="B36" t="s">
         <v>145</v>
       </c>
-      <c r="C36">
-        <v>0</v>
+      <c r="C36" s="1" t="s">
+        <v>215</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -8763,13 +8877,13 @@
         <v>0</v>
       </c>
       <c r="AF36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG36">
         <v>1</v>
       </c>
       <c r="AH36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI36">
         <v>0</v>
@@ -8879,16 +8993,19 @@
       <c r="BR36">
         <v>0</v>
       </c>
+      <c r="BS36">
+        <v>0</v>
+      </c>
     </row>
-    <row r="37" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>36</v>
       </c>
       <c r="B37" t="s">
         <v>154</v>
       </c>
-      <c r="C37">
-        <v>0</v>
+      <c r="C37" s="1" t="s">
+        <v>215</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -8906,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="I37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37">
         <v>1</v>
       </c>
       <c r="K37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L37">
         <v>0</v>
@@ -9091,16 +9208,19 @@
       <c r="BR37">
         <v>0</v>
       </c>
+      <c r="BS37">
+        <v>0</v>
+      </c>
     </row>
-    <row r="38" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>37</v>
       </c>
       <c r="B38" t="s">
         <v>99</v>
       </c>
-      <c r="C38">
-        <v>0</v>
+      <c r="C38" s="1" t="s">
+        <v>237</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -9109,10 +9229,10 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -9160,7 +9280,7 @@
         <v>0</v>
       </c>
       <c r="W38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X38">
         <v>1</v>
@@ -9172,7 +9292,7 @@
         <v>1</v>
       </c>
       <c r="AA38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB38">
         <v>0</v>
@@ -9303,16 +9423,19 @@
       <c r="BR38">
         <v>0</v>
       </c>
+      <c r="BS38">
+        <v>0</v>
+      </c>
     </row>
-    <row r="39" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>38</v>
       </c>
       <c r="B39" t="s">
         <v>112</v>
       </c>
-      <c r="C39">
-        <v>0</v>
+      <c r="C39" s="1" t="s">
+        <v>237</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -9330,13 +9453,13 @@
         <v>0</v>
       </c>
       <c r="I39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39">
         <v>1</v>
       </c>
       <c r="K39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L39">
         <v>0</v>
@@ -9387,13 +9510,13 @@
         <v>0</v>
       </c>
       <c r="AB39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC39">
         <v>1</v>
       </c>
       <c r="AD39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE39">
         <v>0</v>
@@ -9515,16 +9638,19 @@
       <c r="BR39">
         <v>0</v>
       </c>
+      <c r="BS39">
+        <v>0</v>
+      </c>
     </row>
-    <row r="40" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>39</v>
       </c>
       <c r="B40" t="s">
         <v>106</v>
       </c>
-      <c r="C40">
-        <v>0</v>
+      <c r="C40" s="1" t="s">
+        <v>249</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -9533,10 +9659,10 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -9584,7 +9710,7 @@
         <v>0</v>
       </c>
       <c r="W40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X40">
         <v>1</v>
@@ -9596,7 +9722,7 @@
         <v>1</v>
       </c>
       <c r="AA40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB40">
         <v>0</v>
@@ -9727,16 +9853,19 @@
       <c r="BR40">
         <v>0</v>
       </c>
+      <c r="BS40">
+        <v>0</v>
+      </c>
     </row>
-    <row r="41" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>40</v>
       </c>
       <c r="B41" t="s">
         <v>69</v>
       </c>
-      <c r="C41">
-        <v>0</v>
+      <c r="C41" s="1" t="s">
+        <v>203</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -9745,16 +9874,16 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41">
         <v>0</v>
       </c>
       <c r="I41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41">
         <v>1</v>
@@ -9763,13 +9892,13 @@
         <v>1</v>
       </c>
       <c r="L41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M41">
         <v>0</v>
       </c>
       <c r="N41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O41">
         <v>1</v>
@@ -9790,19 +9919,19 @@
         <v>1</v>
       </c>
       <c r="U41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V41">
         <v>0</v>
       </c>
       <c r="W41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z41">
         <v>1</v>
@@ -9820,7 +9949,7 @@
         <v>1</v>
       </c>
       <c r="AE41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF41">
         <v>0</v>
@@ -9939,16 +10068,19 @@
       <c r="BR41">
         <v>0</v>
       </c>
+      <c r="BS41">
+        <v>0</v>
+      </c>
     </row>
-    <row r="42" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>41</v>
       </c>
       <c r="B42" t="s">
         <v>71</v>
       </c>
-      <c r="C42">
-        <v>0</v>
+      <c r="C42" s="1" t="s">
+        <v>203</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -9957,22 +10089,22 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42">
         <v>0</v>
       </c>
       <c r="I42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42">
         <v>1</v>
       </c>
       <c r="K42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L42">
         <v>0</v>
@@ -9981,7 +10113,7 @@
         <v>0</v>
       </c>
       <c r="N42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O42">
         <v>1</v>
@@ -10002,19 +10134,19 @@
         <v>1</v>
       </c>
       <c r="U42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V42">
         <v>0</v>
       </c>
       <c r="W42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z42">
         <v>1</v>
@@ -10029,7 +10161,7 @@
         <v>1</v>
       </c>
       <c r="AD42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE42">
         <v>0</v>
@@ -10151,16 +10283,19 @@
       <c r="BR42">
         <v>0</v>
       </c>
+      <c r="BS42">
+        <v>0</v>
+      </c>
     </row>
-    <row r="43" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>42</v>
       </c>
       <c r="B43" t="s">
         <v>81</v>
       </c>
-      <c r="C43">
-        <v>0</v>
+      <c r="C43" s="1" t="s">
+        <v>203</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -10181,28 +10316,28 @@
         <v>0</v>
       </c>
       <c r="J43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R43">
         <v>0</v>
@@ -10211,10 +10346,10 @@
         <v>0</v>
       </c>
       <c r="T43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V43">
         <v>0</v>
@@ -10235,10 +10370,10 @@
         <v>0</v>
       </c>
       <c r="AB43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD43">
         <v>0</v>
@@ -10313,10 +10448,10 @@
         <v>0</v>
       </c>
       <c r="BB43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD43">
         <v>0</v>
@@ -10363,16 +10498,19 @@
       <c r="BR43">
         <v>0</v>
       </c>
+      <c r="BS43">
+        <v>0</v>
+      </c>
     </row>
-    <row r="44" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43</v>
       </c>
       <c r="B44" t="s">
         <v>108</v>
       </c>
-      <c r="C44">
-        <v>0</v>
+      <c r="C44" s="1" t="s">
+        <v>203</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -10381,10 +10519,10 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44">
         <v>0</v>
@@ -10432,19 +10570,19 @@
         <v>0</v>
       </c>
       <c r="W44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z44">
         <v>1</v>
       </c>
       <c r="AA44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB44">
         <v>0</v>
@@ -10575,16 +10713,19 @@
       <c r="BR44">
         <v>0</v>
       </c>
+      <c r="BS44">
+        <v>0</v>
+      </c>
     </row>
-    <row r="45" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>44</v>
       </c>
       <c r="B45" t="s">
         <v>111</v>
       </c>
-      <c r="C45">
-        <v>0</v>
+      <c r="C45" s="1" t="s">
+        <v>203</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -10623,10 +10764,10 @@
         <v>0</v>
       </c>
       <c r="P45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R45">
         <v>0</v>
@@ -10635,10 +10776,10 @@
         <v>0</v>
       </c>
       <c r="T45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V45">
         <v>0</v>
@@ -10787,16 +10928,19 @@
       <c r="BR45">
         <v>0</v>
       </c>
+      <c r="BS45">
+        <v>0</v>
+      </c>
     </row>
-    <row r="46" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>45</v>
       </c>
       <c r="B46" t="s">
         <v>113</v>
       </c>
-      <c r="C46">
-        <v>0</v>
+      <c r="C46" s="1" t="s">
+        <v>203</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -10832,13 +10976,13 @@
         <v>0</v>
       </c>
       <c r="O46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R46">
         <v>1</v>
@@ -10847,7 +10991,7 @@
         <v>1</v>
       </c>
       <c r="T46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U46">
         <v>0</v>
@@ -10999,16 +11143,19 @@
       <c r="BR46">
         <v>0</v>
       </c>
+      <c r="BS46">
+        <v>0</v>
+      </c>
     </row>
-    <row r="47" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>46</v>
       </c>
       <c r="B47" t="s">
         <v>117</v>
       </c>
-      <c r="C47">
-        <v>0</v>
+      <c r="C47" s="1" t="s">
+        <v>203</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -11041,13 +11188,13 @@
         <v>0</v>
       </c>
       <c r="N47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O47">
         <v>1</v>
       </c>
       <c r="P47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q47">
         <v>0</v>
@@ -11211,16 +11358,19 @@
       <c r="BR47">
         <v>0</v>
       </c>
+      <c r="BS47">
+        <v>0</v>
+      </c>
     </row>
-    <row r="48" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>47</v>
       </c>
       <c r="B48" t="s">
         <v>128</v>
       </c>
-      <c r="C48">
-        <v>0</v>
+      <c r="C48" s="1" t="s">
+        <v>203</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -11253,13 +11403,13 @@
         <v>0</v>
       </c>
       <c r="N48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O48">
         <v>1</v>
       </c>
       <c r="P48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q48">
         <v>0</v>
@@ -11423,16 +11573,19 @@
       <c r="BR48">
         <v>0</v>
       </c>
+      <c r="BS48">
+        <v>0</v>
+      </c>
     </row>
-    <row r="49" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>48</v>
       </c>
       <c r="B49" t="s">
         <v>129</v>
       </c>
-      <c r="C49">
-        <v>0</v>
+      <c r="C49" s="1" t="s">
+        <v>203</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -11465,13 +11618,13 @@
         <v>0</v>
       </c>
       <c r="N49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O49">
         <v>1</v>
       </c>
       <c r="P49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q49">
         <v>0</v>
@@ -11635,16 +11788,19 @@
       <c r="BR49">
         <v>0</v>
       </c>
+      <c r="BS49">
+        <v>0</v>
+      </c>
     </row>
-    <row r="50" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>49</v>
       </c>
       <c r="B50" t="s">
         <v>141</v>
       </c>
-      <c r="C50">
-        <v>0</v>
+      <c r="C50" s="1" t="s">
+        <v>203</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -11677,13 +11833,13 @@
         <v>0</v>
       </c>
       <c r="N50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O50">
         <v>1</v>
       </c>
       <c r="P50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q50">
         <v>0</v>
@@ -11847,16 +12003,19 @@
       <c r="BR50">
         <v>0</v>
       </c>
+      <c r="BS50">
+        <v>0</v>
+      </c>
     </row>
-    <row r="51" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>50</v>
       </c>
       <c r="B51" t="s">
         <v>142</v>
       </c>
-      <c r="C51">
-        <v>0</v>
+      <c r="C51" s="1" t="s">
+        <v>203</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -11874,13 +12033,13 @@
         <v>0</v>
       </c>
       <c r="I51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J51">
         <v>1</v>
       </c>
       <c r="K51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L51">
         <v>0</v>
@@ -12059,16 +12218,19 @@
       <c r="BR51">
         <v>0</v>
       </c>
+      <c r="BS51">
+        <v>0</v>
+      </c>
     </row>
-    <row r="52" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>51</v>
       </c>
       <c r="B52" t="s">
         <v>73</v>
       </c>
-      <c r="C52">
-        <v>0</v>
+      <c r="C52" s="1" t="s">
+        <v>170</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -12077,10 +12239,10 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H52">
         <v>0</v>
@@ -12128,7 +12290,7 @@
         <v>0</v>
       </c>
       <c r="W52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X52">
         <v>1</v>
@@ -12146,13 +12308,13 @@
         <v>1</v>
       </c>
       <c r="AC52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF52">
         <v>0</v>
@@ -12271,16 +12433,19 @@
       <c r="BR52">
         <v>0</v>
       </c>
+      <c r="BS52">
+        <v>0</v>
+      </c>
     </row>
-    <row r="53" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>52</v>
       </c>
       <c r="B53" t="s">
         <v>125</v>
       </c>
-      <c r="C53">
-        <v>0</v>
+      <c r="C53" s="1" t="s">
+        <v>170</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -12313,13 +12478,13 @@
         <v>0</v>
       </c>
       <c r="N53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O53">
         <v>1</v>
       </c>
       <c r="P53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q53">
         <v>0</v>
@@ -12483,16 +12648,19 @@
       <c r="BR53">
         <v>0</v>
       </c>
+      <c r="BS53">
+        <v>0</v>
+      </c>
     </row>
-    <row r="54" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>53</v>
       </c>
       <c r="B54" t="s">
         <v>126</v>
       </c>
-      <c r="C54">
-        <v>0</v>
+      <c r="C54" s="1" t="s">
+        <v>170</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -12510,13 +12678,13 @@
         <v>0</v>
       </c>
       <c r="I54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J54">
         <v>1</v>
       </c>
       <c r="K54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L54">
         <v>0</v>
@@ -12695,16 +12863,19 @@
       <c r="BR54">
         <v>0</v>
       </c>
+      <c r="BS54">
+        <v>0</v>
+      </c>
     </row>
-    <row r="55" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>54</v>
       </c>
       <c r="B55" t="s">
         <v>131</v>
       </c>
-      <c r="C55">
-        <v>0</v>
+      <c r="C55" s="1" t="s">
+        <v>170</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -12722,13 +12893,13 @@
         <v>0</v>
       </c>
       <c r="I55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J55">
         <v>1</v>
       </c>
       <c r="K55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L55">
         <v>0</v>
@@ -12907,16 +13078,19 @@
       <c r="BR55">
         <v>0</v>
       </c>
+      <c r="BS55">
+        <v>0</v>
+      </c>
     </row>
-    <row r="56" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>55</v>
       </c>
       <c r="B56" t="s">
         <v>143</v>
       </c>
-      <c r="C56">
-        <v>0</v>
+      <c r="C56" s="1" t="s">
+        <v>170</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -12949,13 +13123,13 @@
         <v>0</v>
       </c>
       <c r="N56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O56">
         <v>1</v>
       </c>
       <c r="P56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q56">
         <v>0</v>
@@ -13119,16 +13293,19 @@
       <c r="BR56">
         <v>0</v>
       </c>
+      <c r="BS56">
+        <v>0</v>
+      </c>
     </row>
-    <row r="57" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>56</v>
       </c>
       <c r="B57" t="s">
         <v>149</v>
       </c>
-      <c r="C57">
-        <v>0</v>
+      <c r="C57" s="1" t="s">
+        <v>170</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -13167,13 +13344,13 @@
         <v>0</v>
       </c>
       <c r="P57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q57">
         <v>1</v>
       </c>
       <c r="R57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S57">
         <v>0</v>
@@ -13331,16 +13508,19 @@
       <c r="BR57">
         <v>0</v>
       </c>
+      <c r="BS57">
+        <v>0</v>
+      </c>
     </row>
-    <row r="58" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>57</v>
       </c>
       <c r="B58" t="s">
         <v>150</v>
       </c>
-      <c r="C58">
-        <v>0</v>
+      <c r="C58" s="1" t="s">
+        <v>170</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -13391,10 +13571,10 @@
         <v>0</v>
       </c>
       <c r="T58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V58">
         <v>0</v>
@@ -13412,10 +13592,10 @@
         <v>0</v>
       </c>
       <c r="AA58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC58">
         <v>0</v>
@@ -13543,16 +13723,19 @@
       <c r="BR58">
         <v>0</v>
       </c>
+      <c r="BS58">
+        <v>0</v>
+      </c>
     </row>
-    <row r="59" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>58</v>
       </c>
       <c r="B59" t="s">
         <v>158</v>
       </c>
-      <c r="C59">
-        <v>0</v>
+      <c r="C59" s="1" t="s">
+        <v>170</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -13585,16 +13768,16 @@
         <v>0</v>
       </c>
       <c r="N59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R59">
         <v>0</v>
@@ -13755,16 +13938,19 @@
       <c r="BR59">
         <v>0</v>
       </c>
+      <c r="BS59">
+        <v>0</v>
+      </c>
     </row>
-    <row r="60" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>59</v>
       </c>
       <c r="B60" t="s">
         <v>163</v>
       </c>
-      <c r="C60">
-        <v>0</v>
+      <c r="C60" s="1" t="s">
+        <v>170</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -13797,13 +13983,13 @@
         <v>0</v>
       </c>
       <c r="N60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O60">
         <v>1</v>
       </c>
       <c r="P60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q60">
         <v>0</v>
@@ -13967,16 +14153,19 @@
       <c r="BR60">
         <v>0</v>
       </c>
+      <c r="BS60">
+        <v>0</v>
+      </c>
     </row>
-    <row r="61" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>60</v>
       </c>
       <c r="B61" t="s">
         <v>78</v>
       </c>
-      <c r="C61">
-        <v>0</v>
+      <c r="C61" s="1" t="s">
+        <v>212</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -13985,10 +14174,10 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H61">
         <v>0</v>
@@ -14036,7 +14225,7 @@
         <v>0</v>
       </c>
       <c r="W61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X61">
         <v>1</v>
@@ -14048,7 +14237,7 @@
         <v>1</v>
       </c>
       <c r="AA61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB61">
         <v>0</v>
@@ -14179,16 +14368,19 @@
       <c r="BR61">
         <v>0</v>
       </c>
+      <c r="BS61">
+        <v>0</v>
+      </c>
     </row>
-    <row r="62" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>61</v>
       </c>
       <c r="B62" t="s">
         <v>116</v>
       </c>
-      <c r="C62">
-        <v>0</v>
+      <c r="C62" s="1" t="s">
+        <v>212</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -14260,19 +14452,19 @@
         <v>0</v>
       </c>
       <c r="AA62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB62">
         <v>1</v>
       </c>
       <c r="AC62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF62">
         <v>0</v>
@@ -14391,16 +14583,19 @@
       <c r="BR62">
         <v>0</v>
       </c>
+      <c r="BS62">
+        <v>0</v>
+      </c>
     </row>
-    <row r="63" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>62</v>
       </c>
       <c r="B63" t="s">
         <v>121</v>
       </c>
-      <c r="C63">
-        <v>0</v>
+      <c r="C63" s="1" t="s">
+        <v>212</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -14442,7 +14637,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R63">
         <v>1</v>
@@ -14451,7 +14646,7 @@
         <v>1</v>
       </c>
       <c r="T63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U63">
         <v>0</v>
@@ -14603,16 +14798,19 @@
       <c r="BR63">
         <v>0</v>
       </c>
+      <c r="BS63">
+        <v>0</v>
+      </c>
     </row>
-    <row r="64" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>63</v>
       </c>
       <c r="B64" t="s">
         <v>127</v>
       </c>
-      <c r="C64">
-        <v>0</v>
+      <c r="C64" s="1" t="s">
+        <v>212</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -14645,13 +14843,13 @@
         <v>0</v>
       </c>
       <c r="N64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O64">
         <v>1</v>
       </c>
       <c r="P64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q64">
         <v>0</v>
@@ -14815,16 +15013,19 @@
       <c r="BR64">
         <v>0</v>
       </c>
+      <c r="BS64">
+        <v>0</v>
+      </c>
     </row>
-    <row r="65" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>64</v>
       </c>
       <c r="B65" t="s">
         <v>130</v>
       </c>
-      <c r="C65">
-        <v>0</v>
+      <c r="C65" s="1" t="s">
+        <v>212</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -14857,13 +15058,13 @@
         <v>0</v>
       </c>
       <c r="N65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O65">
         <v>1</v>
       </c>
       <c r="P65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q65">
         <v>0</v>
@@ -15027,16 +15228,19 @@
       <c r="BR65">
         <v>0</v>
       </c>
+      <c r="BS65">
+        <v>0</v>
+      </c>
     </row>
-    <row r="66" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>65</v>
       </c>
       <c r="B66" t="s">
         <v>134</v>
       </c>
-      <c r="C66">
-        <v>0</v>
+      <c r="C66" s="1" t="s">
+        <v>212</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -15087,10 +15291,10 @@
         <v>0</v>
       </c>
       <c r="T66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V66">
         <v>0</v>
@@ -15108,10 +15312,10 @@
         <v>0</v>
       </c>
       <c r="AA66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC66">
         <v>0</v>
@@ -15239,16 +15443,19 @@
       <c r="BR66">
         <v>0</v>
       </c>
+      <c r="BS66">
+        <v>0</v>
+      </c>
     </row>
-    <row r="67" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>66</v>
       </c>
       <c r="B67" t="s">
         <v>152</v>
       </c>
-      <c r="C67">
-        <v>0</v>
+      <c r="C67" s="1" t="s">
+        <v>212</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -15281,13 +15488,13 @@
         <v>0</v>
       </c>
       <c r="N67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O67">
         <v>1</v>
       </c>
       <c r="P67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q67">
         <v>0</v>
@@ -15451,16 +15658,19 @@
       <c r="BR67">
         <v>0</v>
       </c>
+      <c r="BS67">
+        <v>0</v>
+      </c>
     </row>
-    <row r="68" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>67</v>
       </c>
       <c r="B68" t="s">
         <v>153</v>
       </c>
-      <c r="C68">
-        <v>0</v>
+      <c r="C68" s="1" t="s">
+        <v>212</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -15493,13 +15703,13 @@
         <v>0</v>
       </c>
       <c r="N68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O68">
         <v>1</v>
       </c>
       <c r="P68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q68">
         <v>0</v>
@@ -15663,16 +15873,19 @@
       <c r="BR68">
         <v>0</v>
       </c>
+      <c r="BS68">
+        <v>0</v>
+      </c>
     </row>
-    <row r="69" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>68</v>
       </c>
       <c r="B69" t="s">
         <v>159</v>
       </c>
-      <c r="C69">
-        <v>0</v>
+      <c r="C69" s="1" t="s">
+        <v>212</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -15690,13 +15903,13 @@
         <v>0</v>
       </c>
       <c r="I69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J69">
         <v>1</v>
       </c>
       <c r="K69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L69">
         <v>0</v>
@@ -15875,16 +16088,19 @@
       <c r="BR69">
         <v>0</v>
       </c>
+      <c r="BS69">
+        <v>0</v>
+      </c>
     </row>
-    <row r="70" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>69</v>
       </c>
       <c r="B70" t="s">
         <v>166</v>
       </c>
-      <c r="C70">
-        <v>0</v>
+      <c r="C70" s="1" t="s">
+        <v>212</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -15902,13 +16118,13 @@
         <v>0</v>
       </c>
       <c r="I70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J70">
         <v>1</v>
       </c>
       <c r="K70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L70">
         <v>0</v>
@@ -16087,16 +16303,19 @@
       <c r="BR70">
         <v>0</v>
       </c>
+      <c r="BS70">
+        <v>0</v>
+      </c>
     </row>
-    <row r="71" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>70</v>
       </c>
       <c r="B71" t="s">
         <v>105</v>
       </c>
-      <c r="C71">
-        <v>0</v>
+      <c r="C71" s="1" t="s">
+        <v>197</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -16105,10 +16324,10 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H71">
         <v>0</v>
@@ -16156,7 +16375,7 @@
         <v>0</v>
       </c>
       <c r="W71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X71">
         <v>1</v>
@@ -16168,7 +16387,7 @@
         <v>1</v>
       </c>
       <c r="AA71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB71">
         <v>0</v>
@@ -16299,16 +16518,19 @@
       <c r="BR71">
         <v>0</v>
       </c>
+      <c r="BS71">
+        <v>0</v>
+      </c>
     </row>
-    <row r="72" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>71</v>
       </c>
       <c r="B72" t="s">
         <v>86</v>
       </c>
-      <c r="C72">
-        <v>0</v>
+      <c r="C72" s="1" t="s">
+        <v>235</v>
       </c>
       <c r="D72">
         <v>0</v>
@@ -16317,10 +16539,10 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H72">
         <v>0</v>
@@ -16368,7 +16590,7 @@
         <v>0</v>
       </c>
       <c r="W72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X72">
         <v>1</v>
@@ -16380,16 +16602,16 @@
         <v>1</v>
       </c>
       <c r="AA72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB72">
         <v>0</v>
       </c>
       <c r="AC72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE72">
         <v>0</v>
@@ -16511,16 +16733,19 @@
       <c r="BR72">
         <v>0</v>
       </c>
+      <c r="BS72">
+        <v>0</v>
+      </c>
     </row>
-    <row r="73" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>72</v>
       </c>
       <c r="B73" t="s">
         <v>123</v>
       </c>
-      <c r="C73">
-        <v>0</v>
+      <c r="C73" s="1" t="s">
+        <v>235</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -16538,13 +16763,13 @@
         <v>0</v>
       </c>
       <c r="I73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J73">
         <v>1</v>
       </c>
       <c r="K73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L73">
         <v>0</v>
@@ -16723,16 +16948,19 @@
       <c r="BR73">
         <v>0</v>
       </c>
+      <c r="BS73">
+        <v>0</v>
+      </c>
     </row>
-    <row r="74" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>73</v>
       </c>
       <c r="B74" t="s">
         <v>139</v>
       </c>
-      <c r="C74">
-        <v>0</v>
+      <c r="C74" s="1" t="s">
+        <v>235</v>
       </c>
       <c r="D74">
         <v>0</v>
@@ -16807,16 +17035,16 @@
         <v>0</v>
       </c>
       <c r="AB74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF74">
         <v>0</v>
@@ -16935,16 +17163,19 @@
       <c r="BR74">
         <v>0</v>
       </c>
+      <c r="BS74">
+        <v>0</v>
+      </c>
     </row>
-    <row r="75" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>74</v>
       </c>
       <c r="B75" t="s">
         <v>77</v>
       </c>
-      <c r="C75">
-        <v>0</v>
+      <c r="C75" s="1" t="s">
+        <v>182</v>
       </c>
       <c r="D75">
         <v>0</v>
@@ -16953,10 +17184,10 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H75">
         <v>0</v>
@@ -16995,16 +17226,16 @@
         <v>0</v>
       </c>
       <c r="T75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V75">
         <v>0</v>
       </c>
       <c r="W75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X75">
         <v>1</v>
@@ -17022,7 +17253,7 @@
         <v>1</v>
       </c>
       <c r="AC75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD75">
         <v>0</v>
@@ -17147,16 +17378,19 @@
       <c r="BR75">
         <v>0</v>
       </c>
+      <c r="BS75">
+        <v>0</v>
+      </c>
     </row>
-    <row r="76" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>75</v>
       </c>
       <c r="B76" t="s">
         <v>82</v>
       </c>
-      <c r="C76">
-        <v>0</v>
+      <c r="C76" s="1" t="s">
+        <v>275</v>
       </c>
       <c r="D76">
         <v>0</v>
@@ -17165,10 +17399,10 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H76">
         <v>0</v>
@@ -17216,7 +17450,7 @@
         <v>0</v>
       </c>
       <c r="W76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X76">
         <v>1</v>
@@ -17228,13 +17462,13 @@
         <v>1</v>
       </c>
       <c r="AA76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD76">
         <v>0</v>
@@ -17359,16 +17593,19 @@
       <c r="BR76">
         <v>0</v>
       </c>
+      <c r="BS76">
+        <v>0</v>
+      </c>
     </row>
-    <row r="77" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>76</v>
       </c>
       <c r="B77" t="s">
         <v>89</v>
       </c>
-      <c r="C77">
-        <v>0</v>
+      <c r="C77" s="1" t="s">
+        <v>265</v>
       </c>
       <c r="D77">
         <v>0</v>
@@ -17377,10 +17614,10 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H77">
         <v>0</v>
@@ -17428,7 +17665,7 @@
         <v>0</v>
       </c>
       <c r="W77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X77">
         <v>1</v>
@@ -17440,13 +17677,13 @@
         <v>1</v>
       </c>
       <c r="AA77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD77">
         <v>0</v>
@@ -17571,16 +17808,19 @@
       <c r="BR77">
         <v>0</v>
       </c>
+      <c r="BS77">
+        <v>0</v>
+      </c>
     </row>
-    <row r="78" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>77</v>
       </c>
       <c r="B78" t="s">
         <v>83</v>
       </c>
-      <c r="C78">
-        <v>0</v>
+      <c r="C78" s="1" t="s">
+        <v>179</v>
       </c>
       <c r="D78">
         <v>0</v>
@@ -17589,10 +17829,10 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H78">
         <v>0</v>
@@ -17640,28 +17880,28 @@
         <v>0</v>
       </c>
       <c r="W78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z78">
         <v>1</v>
       </c>
       <c r="AA78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC78">
         <v>1</v>
       </c>
       <c r="AD78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE78">
         <v>0</v>
@@ -17783,16 +18023,19 @@
       <c r="BR78">
         <v>0</v>
       </c>
+      <c r="BS78">
+        <v>0</v>
+      </c>
     </row>
-    <row r="79" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>78</v>
       </c>
       <c r="B79" t="s">
         <v>124</v>
       </c>
-      <c r="C79">
-        <v>0</v>
+      <c r="C79" s="1" t="s">
+        <v>179</v>
       </c>
       <c r="D79">
         <v>0</v>
@@ -17810,13 +18053,13 @@
         <v>0</v>
       </c>
       <c r="I79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J79">
         <v>1</v>
       </c>
       <c r="K79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L79">
         <v>0</v>
@@ -17995,16 +18238,19 @@
       <c r="BR79">
         <v>0</v>
       </c>
+      <c r="BS79">
+        <v>0</v>
+      </c>
     </row>
-    <row r="80" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>79</v>
       </c>
       <c r="B80" t="s">
         <v>132</v>
       </c>
-      <c r="C80">
-        <v>0</v>
+      <c r="C80" s="1" t="s">
+        <v>179</v>
       </c>
       <c r="D80">
         <v>0</v>
@@ -18022,13 +18268,13 @@
         <v>0</v>
       </c>
       <c r="I80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J80">
         <v>1</v>
       </c>
       <c r="K80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L80">
         <v>0</v>
@@ -18207,16 +18453,19 @@
       <c r="BR80">
         <v>0</v>
       </c>
+      <c r="BS80">
+        <v>0</v>
+      </c>
     </row>
-    <row r="81" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>80</v>
       </c>
       <c r="B81" t="s">
         <v>160</v>
       </c>
-      <c r="C81">
-        <v>0</v>
+      <c r="C81" s="1" t="s">
+        <v>179</v>
       </c>
       <c r="D81">
         <v>0</v>
@@ -18243,13 +18492,13 @@
         <v>0</v>
       </c>
       <c r="L81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M81">
         <v>1</v>
       </c>
       <c r="N81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O81">
         <v>0</v>
@@ -18419,16 +18668,19 @@
       <c r="BR81">
         <v>0</v>
       </c>
+      <c r="BS81">
+        <v>0</v>
+      </c>
     </row>
-    <row r="82" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>81</v>
       </c>
       <c r="B82" t="s">
         <v>79</v>
       </c>
-      <c r="C82">
-        <v>0</v>
+      <c r="C82" s="1" t="s">
+        <v>260</v>
       </c>
       <c r="D82">
         <v>0</v>
@@ -18446,13 +18698,13 @@
         <v>0</v>
       </c>
       <c r="I82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J82">
         <v>1</v>
       </c>
       <c r="K82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L82">
         <v>0</v>
@@ -18491,16 +18743,16 @@
         <v>0</v>
       </c>
       <c r="X82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y82">
         <v>1</v>
       </c>
       <c r="Z82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB82">
         <v>1</v>
@@ -18512,7 +18764,7 @@
         <v>1</v>
       </c>
       <c r="AE82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF82">
         <v>0</v>
@@ -18631,16 +18883,19 @@
       <c r="BR82">
         <v>0</v>
       </c>
+      <c r="BS82">
+        <v>0</v>
+      </c>
     </row>
-    <row r="83" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>82</v>
       </c>
       <c r="B83" t="s">
         <v>97</v>
       </c>
-      <c r="C83">
-        <v>0</v>
+      <c r="C83" s="1" t="s">
+        <v>223</v>
       </c>
       <c r="D83">
         <v>0</v>
@@ -18649,10 +18904,10 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H83">
         <v>0</v>
@@ -18700,7 +18955,7 @@
         <v>0</v>
       </c>
       <c r="W83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X83">
         <v>1</v>
@@ -18712,7 +18967,7 @@
         <v>1</v>
       </c>
       <c r="AA83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB83">
         <v>0</v>
@@ -18843,16 +19098,19 @@
       <c r="BR83">
         <v>0</v>
       </c>
+      <c r="BS83">
+        <v>0</v>
+      </c>
     </row>
-    <row r="84" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>83</v>
       </c>
       <c r="B84" t="s">
         <v>98</v>
       </c>
-      <c r="C84">
-        <v>0</v>
+      <c r="C84" s="1" t="s">
+        <v>223</v>
       </c>
       <c r="D84">
         <v>0</v>
@@ -18861,10 +19119,10 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H84">
         <v>0</v>
@@ -18912,7 +19170,7 @@
         <v>0</v>
       </c>
       <c r="W84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X84">
         <v>1</v>
@@ -18924,7 +19182,7 @@
         <v>1</v>
       </c>
       <c r="AA84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB84">
         <v>0</v>
@@ -19055,16 +19313,19 @@
       <c r="BR84">
         <v>0</v>
       </c>
+      <c r="BS84">
+        <v>0</v>
+      </c>
     </row>
-    <row r="85" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>84</v>
       </c>
       <c r="B85" t="s">
         <v>148</v>
       </c>
-      <c r="C85">
-        <v>0</v>
+      <c r="C85" s="1" t="s">
+        <v>223</v>
       </c>
       <c r="D85">
         <v>0</v>
@@ -19136,19 +19397,19 @@
         <v>0</v>
       </c>
       <c r="AA85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC85">
         <v>0</v>
       </c>
       <c r="AD85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF85">
         <v>0</v>
@@ -19267,16 +19528,19 @@
       <c r="BR85">
         <v>0</v>
       </c>
+      <c r="BS85">
+        <v>0</v>
+      </c>
     </row>
-    <row r="86" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>85</v>
       </c>
       <c r="B86" t="s">
         <v>101</v>
       </c>
-      <c r="C86">
-        <v>0</v>
+      <c r="C86" s="1" t="s">
+        <v>272</v>
       </c>
       <c r="D86">
         <v>0</v>
@@ -19285,10 +19549,10 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H86">
         <v>0</v>
@@ -19336,7 +19600,7 @@
         <v>0</v>
       </c>
       <c r="W86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X86">
         <v>1</v>
@@ -19348,7 +19612,7 @@
         <v>1</v>
       </c>
       <c r="AA86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB86">
         <v>0</v>
@@ -19479,16 +19743,19 @@
       <c r="BR86">
         <v>0</v>
       </c>
+      <c r="BS86">
+        <v>0</v>
+      </c>
     </row>
-    <row r="87" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>86</v>
       </c>
       <c r="B87" t="s">
         <v>96</v>
       </c>
-      <c r="C87">
-        <v>0</v>
+      <c r="C87" s="1" t="s">
+        <v>243</v>
       </c>
       <c r="D87">
         <v>0</v>
@@ -19497,10 +19764,10 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H87">
         <v>0</v>
@@ -19548,7 +19815,7 @@
         <v>0</v>
       </c>
       <c r="W87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X87">
         <v>1</v>
@@ -19560,7 +19827,7 @@
         <v>1</v>
       </c>
       <c r="AA87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB87">
         <v>0</v>
@@ -19691,16 +19958,19 @@
       <c r="BR87">
         <v>0</v>
       </c>
+      <c r="BS87">
+        <v>0</v>
+      </c>
     </row>
-    <row r="88" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>87</v>
       </c>
       <c r="B88" t="s">
         <v>136</v>
       </c>
-      <c r="C88">
-        <v>0</v>
+      <c r="C88" s="1" t="s">
+        <v>243</v>
       </c>
       <c r="D88">
         <v>0</v>
@@ -19751,10 +20021,10 @@
         <v>0</v>
       </c>
       <c r="T88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V88">
         <v>0</v>
@@ -19772,10 +20042,10 @@
         <v>0</v>
       </c>
       <c r="AA88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC88">
         <v>0</v>
@@ -19903,16 +20173,19 @@
       <c r="BR88">
         <v>0</v>
       </c>
+      <c r="BS88">
+        <v>0</v>
+      </c>
     </row>
-    <row r="89" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>88</v>
       </c>
       <c r="B89" t="s">
         <v>102</v>
       </c>
-      <c r="C89">
-        <v>0</v>
+      <c r="C89" s="1" t="s">
+        <v>229</v>
       </c>
       <c r="D89">
         <v>0</v>
@@ -19921,10 +20194,10 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H89">
         <v>0</v>
@@ -19972,7 +20245,7 @@
         <v>0</v>
       </c>
       <c r="W89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X89">
         <v>1</v>
@@ -19984,7 +20257,7 @@
         <v>1</v>
       </c>
       <c r="AA89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB89">
         <v>0</v>
@@ -20115,16 +20388,19 @@
       <c r="BR89">
         <v>0</v>
       </c>
+      <c r="BS89">
+        <v>0</v>
+      </c>
     </row>
-    <row r="90" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>89</v>
       </c>
       <c r="B90" t="s">
         <v>118</v>
       </c>
-      <c r="C90">
-        <v>0</v>
+      <c r="C90" s="1" t="s">
+        <v>229</v>
       </c>
       <c r="D90">
         <v>0</v>
@@ -20175,10 +20451,10 @@
         <v>0</v>
       </c>
       <c r="T90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V90">
         <v>0</v>
@@ -20196,19 +20472,19 @@
         <v>0</v>
       </c>
       <c r="AA90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC90">
         <v>0</v>
       </c>
       <c r="AD90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF90">
         <v>0</v>
@@ -20327,16 +20603,19 @@
       <c r="BR90">
         <v>0</v>
       </c>
+      <c r="BS90">
+        <v>0</v>
+      </c>
     </row>
-    <row r="91" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>90</v>
       </c>
       <c r="B91" t="s">
         <v>88</v>
       </c>
-      <c r="C91">
-        <v>0</v>
+      <c r="C91" s="1" t="s">
+        <v>176</v>
       </c>
       <c r="D91">
         <v>0</v>
@@ -20345,10 +20624,10 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H91">
         <v>0</v>
@@ -20396,7 +20675,7 @@
         <v>0</v>
       </c>
       <c r="W91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X91">
         <v>1</v>
@@ -20408,13 +20687,13 @@
         <v>1</v>
       </c>
       <c r="AA91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD91">
         <v>0</v>
@@ -20539,16 +20818,19 @@
       <c r="BR91">
         <v>0</v>
       </c>
+      <c r="BS91">
+        <v>0</v>
+      </c>
     </row>
-    <row r="92" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>91</v>
       </c>
       <c r="B92" t="s">
         <v>120</v>
       </c>
-      <c r="C92">
-        <v>0</v>
+      <c r="C92" s="1" t="s">
+        <v>176</v>
       </c>
       <c r="D92">
         <v>0</v>
@@ -20599,10 +20881,10 @@
         <v>0</v>
       </c>
       <c r="T92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V92">
         <v>0</v>
@@ -20620,19 +20902,19 @@
         <v>0</v>
       </c>
       <c r="AA92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC92">
         <v>0</v>
       </c>
       <c r="AD92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF92">
         <v>0</v>
@@ -20751,16 +21033,19 @@
       <c r="BR92">
         <v>0</v>
       </c>
+      <c r="BS92">
+        <v>0</v>
+      </c>
     </row>
-    <row r="93" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>92</v>
       </c>
       <c r="B93" t="s">
         <v>103</v>
       </c>
-      <c r="C93">
-        <v>0</v>
+      <c r="C93" s="1" t="s">
+        <v>281</v>
       </c>
       <c r="D93">
         <v>0</v>
@@ -20769,10 +21054,10 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H93">
         <v>0</v>
@@ -20820,7 +21105,7 @@
         <v>0</v>
       </c>
       <c r="W93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X93">
         <v>1</v>
@@ -20832,7 +21117,7 @@
         <v>1</v>
       </c>
       <c r="AA93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB93">
         <v>0</v>
@@ -20963,16 +21248,19 @@
       <c r="BR93">
         <v>0</v>
       </c>
+      <c r="BS93">
+        <v>0</v>
+      </c>
     </row>
-    <row r="94" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>93</v>
       </c>
       <c r="B94" t="s">
         <v>135</v>
       </c>
-      <c r="C94">
-        <v>0</v>
+      <c r="C94" s="1" t="s">
+        <v>269</v>
       </c>
       <c r="D94">
         <v>0</v>
@@ -21044,19 +21332,19 @@
         <v>0</v>
       </c>
       <c r="AA94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC94">
         <v>0</v>
       </c>
       <c r="AD94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF94">
         <v>0</v>
@@ -21175,16 +21463,19 @@
       <c r="BR94">
         <v>0</v>
       </c>
+      <c r="BS94">
+        <v>0</v>
+      </c>
     </row>
-    <row r="95" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>94</v>
       </c>
       <c r="B95" t="s">
         <v>87</v>
       </c>
-      <c r="C95">
-        <v>0</v>
+      <c r="C95" s="1" t="s">
+        <v>194</v>
       </c>
       <c r="D95">
         <v>0</v>
@@ -21193,10 +21484,10 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H95">
         <v>0</v>
@@ -21244,7 +21535,7 @@
         <v>0</v>
       </c>
       <c r="W95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X95">
         <v>1</v>
@@ -21256,7 +21547,7 @@
         <v>1</v>
       </c>
       <c r="AA95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB95">
         <v>0</v>
@@ -21387,16 +21678,19 @@
       <c r="BR95">
         <v>0</v>
       </c>
+      <c r="BS95">
+        <v>0</v>
+      </c>
     </row>
-    <row r="96" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>95</v>
       </c>
       <c r="B96" t="s">
         <v>146</v>
       </c>
-      <c r="C96">
-        <v>0</v>
+      <c r="C96" s="1" t="s">
+        <v>194</v>
       </c>
       <c r="D96">
         <v>0</v>
@@ -21468,19 +21762,19 @@
         <v>0</v>
       </c>
       <c r="AA96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC96">
         <v>0</v>
       </c>
       <c r="AD96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF96">
         <v>0</v>
@@ -21599,16 +21893,19 @@
       <c r="BR96">
         <v>0</v>
       </c>
+      <c r="BS96">
+        <v>0</v>
+      </c>
     </row>
-    <row r="97" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>96</v>
       </c>
       <c r="B97" t="s">
         <v>164</v>
       </c>
-      <c r="C97">
-        <v>0</v>
+      <c r="C97" s="1" t="s">
+        <v>252</v>
       </c>
       <c r="D97">
         <v>0</v>
@@ -21641,13 +21938,13 @@
         <v>0</v>
       </c>
       <c r="N97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O97">
         <v>1</v>
       </c>
       <c r="P97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q97">
         <v>0</v>
@@ -21811,16 +22108,19 @@
       <c r="BR97">
         <v>0</v>
       </c>
+      <c r="BS97">
+        <v>0</v>
+      </c>
     </row>
-    <row r="98" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>97</v>
       </c>
       <c r="B98" t="s">
         <v>157</v>
       </c>
-      <c r="C98">
-        <v>0</v>
+      <c r="C98" s="1" t="s">
+        <v>246</v>
       </c>
       <c r="D98">
         <v>0</v>
@@ -21853,13 +22153,13 @@
         <v>0</v>
       </c>
       <c r="N98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O98">
         <v>1</v>
       </c>
       <c r="P98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q98">
         <v>0</v>
@@ -22023,19 +22323,22 @@
       <c r="BR98">
         <v>0</v>
       </c>
+      <c r="BS98">
+        <v>0</v>
+      </c>
     </row>
-    <row r="99" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>98</v>
       </c>
       <c r="B99" t="s">
         <v>93</v>
       </c>
-      <c r="C99">
-        <v>1</v>
+      <c r="C99" s="1" t="s">
+        <v>188</v>
       </c>
       <c r="D99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E99">
         <v>0</v>
@@ -22137,7 +22440,7 @@
         <v>0</v>
       </c>
       <c r="AL99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM99">
         <v>1</v>
@@ -22149,7 +22452,7 @@
         <v>1</v>
       </c>
       <c r="AP99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ99">
         <v>0</v>
@@ -22235,16 +22538,19 @@
       <c r="BR99">
         <v>0</v>
       </c>
+      <c r="BS99">
+        <v>0</v>
+      </c>
     </row>
-    <row r="100" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>99</v>
       </c>
       <c r="B100" t="s">
         <v>104</v>
       </c>
-      <c r="C100">
-        <v>0</v>
+      <c r="C100" s="1" t="s">
+        <v>257</v>
       </c>
       <c r="D100">
         <v>0</v>
@@ -22268,13 +22574,13 @@
         <v>0</v>
       </c>
       <c r="K100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L100">
         <v>1</v>
       </c>
       <c r="M100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N100">
         <v>0</v>
@@ -22286,22 +22592,22 @@
         <v>0</v>
       </c>
       <c r="Q100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R100">
         <v>1</v>
       </c>
       <c r="S100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T100">
         <v>0</v>
       </c>
       <c r="U100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W100">
         <v>0</v>
@@ -22445,6 +22751,9 @@
         <v>0</v>
       </c>
       <c r="BR100">
+        <v>0</v>
+      </c>
+      <c r="BS100">
         <v>0</v>
       </c>
     </row>
@@ -22460,8 +22769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
